--- a/OC_Valen_FI0123_FF1024.xlsx
+++ b/OC_Valen_FI0123_FF1024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878F17F-0F24-C642-8949-053BFEC580D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422ACEAB-10CA-434F-9939-3121A0DB0EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,19 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C455"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44929</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44931</v>
       </c>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44932</v>
       </c>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44935</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44936</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44937</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44938</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44939</v>
       </c>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44943</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44944</v>
       </c>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44945</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44946</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44949</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44950</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44951</v>
       </c>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44952</v>
       </c>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44953</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44956</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44957</v>
       </c>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44958</v>
       </c>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44959</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44960</v>
       </c>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44963</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44964</v>
       </c>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44965</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44966</v>
       </c>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44967</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44970</v>
       </c>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44971</v>
       </c>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44972</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44973</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44974</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44978</v>
       </c>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44979</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44980</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44981</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44984</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44985</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44986</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44987</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44988</v>
       </c>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44991</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44992</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44993</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44994</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44995</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44998</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44999</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45000</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45001</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45002</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45005</v>
       </c>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45006</v>
       </c>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45007</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45008</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45009</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45012</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45013</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45014</v>
       </c>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45015</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45016</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45019</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45020</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45021</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45022</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45026</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45027</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45028</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45029</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45030</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45033</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45034</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45035</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45036</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45037</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45040</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45041</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45042</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45043</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45044</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45047</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45048</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45049</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45050</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45051</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45054</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45055</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45056</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45057</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45058</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45061</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45062</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45063</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45064</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45065</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45068</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45069</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45070</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45071</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45072</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45076</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45077</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45078</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45079</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45082</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45083</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45084</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45085</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45086</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45089</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45090</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45091</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45092</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45093</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45097</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45098</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45099</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45100</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45103</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45104</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45105</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45106</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45107</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45110</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45112</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45113</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45114</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45117</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45118</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45119</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>45120</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>45121</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>45124</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>45125</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45126</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>45127</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>45128</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>45131</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45132</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45133</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45134</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45135</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45139</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45140</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45141</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45142</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45145</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45146</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45147</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45148</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45149</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45152</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45153</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45154</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45155</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45156</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>45159</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>45160</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>45161</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>45162</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>45163</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>45166</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>45167</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>45168</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>45169</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>45170</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>45174</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>45175</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>45176</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>45177</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>45180</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>45181</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>45182</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>45183</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>45184</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>45187</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>45188</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>45189</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>45190</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>45191</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>45194</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>45195</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>45196</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>45197</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>45198</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>45201</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>45202</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>45203</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>45204</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>45205</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>45208</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>45209</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>45210</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>45211</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>45212</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>45215</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>45216</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>45217</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>45218</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>45219</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>45222</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>45223</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>45224</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>45225</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>45226</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>45229</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>45230</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>45231</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>45232</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>45233</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>45236</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>45237</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>45238</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>45239</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>45240</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>45243</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>45244</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>45245</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>45246</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>45247</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>45250</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>45251</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>45252</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>45254</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>45257</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>45258</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>45259</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>45260</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>45261</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>45264</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>45265</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>45266</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>45267</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>45268</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>45271</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>45272</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>45273</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>45274</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>45275</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>45278</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>45279</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>45280</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>45281</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>45282</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>45286</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>45287</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>45288</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>45289</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>45293</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>45294</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>45295</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>45296</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>45299</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>45300</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>45301</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>45302</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>45303</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>45307</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>45308</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>45309</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>45310</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>45313</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>45314</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>45315</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>45316</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>45317</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>45320</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>45321</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>45322</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>45323</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>45324</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>45327</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>45328</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>45329</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>45330</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>45331</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>45334</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>45335</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>45336</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>45337</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>45338</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>45342</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>45343</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>45344</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>45345</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>45348</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>45349</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>45350</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>45351</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>45352</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>45355</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>45356</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>45357</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>45358</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>45359</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>45362</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>45363</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>45364</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>45365</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>45366</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>45369</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>45370</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>45371</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>45372</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>45373</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>45376</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>45377</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>45378</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>45379</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>45383</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>45384</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>45385</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>45386</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>45387</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>45390</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>45391</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>45392</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45393</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>45394</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>45397</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>45398</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>45399</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>45400</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>45401</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>45404</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>45405</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>45406</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>45407</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>45408</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>45411</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>45412</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>45413</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>45414</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>45415</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>45418</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>45419</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>45420</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>45421</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>45422</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>45425</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>45426</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>45427</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>45428</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>45429</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>45432</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>45433</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>45434</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>45435</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>45436</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45440</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>45441</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>45442</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>45443</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>45446</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>45447</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>45448</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>45449</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>45450</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>45453</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>45454</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>45455</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>45456</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>45457</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>45460</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>45461</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>45463</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>45464</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>45467</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>45468</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>45469</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>45470</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>45471</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>45474</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>45475</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>45476</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>45478</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>45481</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>45482</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>45483</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>45484</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>45485</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>45488</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>45489</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>45490</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>45491</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>45492</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>45495</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>45496</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>45497</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>45498</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>45499</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>45502</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>45503</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>45504</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>45505</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>45506</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>45509</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>45510</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>45511</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>45512</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>45513</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>45516</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>45517</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>45518</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>45519</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>45520</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>45523</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>45524</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>45525</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>45526</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>45527</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>45530</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>45531</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>45532</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>45533</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>45534</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>45538</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>45539</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>45540</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C422" s="3"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>45541</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>45544</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>45545</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>45546</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>45547</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>45548</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>45551</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>45552</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>45553</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>45554</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>45555</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>45558</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>45559</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>45560</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>45561</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>45562</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>45565</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>45566</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>45567</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>45568</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>45569</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>45572</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>45573</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>45574</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>45575</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>45576</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>45579</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>45580</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>45581</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>45582</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>45583</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>45586</v>
       </c>
@@ -4063,11 +4063,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>45587</v>
       </c>
       <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B462">
         <v>0</v>
       </c>
     </row>
